--- a/enderecos.xlsx
+++ b/enderecos.xlsx
@@ -1,49 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Diversos\projetos\Projetos Python\Automação - Tarefas\tabela_precos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mafer-PC\Desktop\Automação - Tarefas\Sistema-Motoboy-Valores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316F9DE9-02B8-4FC8-9F0D-556B006B2AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDA72D7-4140-4E2A-861F-9E635C119D39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7A34410E-8E2D-43DE-8025-136C477DDB1F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" xr2:uid="{7A34410E-8E2D-43DE-8025-136C477DDB1F}"/>
   </bookViews>
   <sheets>
     <sheet name="tabelaValores" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">tabelaValores!$D$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">tabelaValores!$D$2:$D$129</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">tabelaValores!$D$2:$D$129</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">tabelaValores!$G$15</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">tabelaValores!$G$15</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="140">
   <si>
     <t>Local</t>
   </si>
@@ -460,6 +443,9 @@
   </si>
   <si>
     <t>Jardim do Lago</t>
+  </si>
+  <si>
+    <t>Vila Lucia</t>
   </si>
 </sst>
 </file>
@@ -601,14 +587,14 @@
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="7">
     <dxf>
       <font>
         <b/>
       </font>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -617,6 +603,8 @@
         </right>
         <top/>
         <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -624,15 +612,15 @@
         <b/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top/>
         <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -640,15 +628,15 @@
         <b/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top/>
         <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -656,13 +644,15 @@
         <b/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
           <color indexed="64"/>
-        </right>
+        </left>
+        <right/>
         <top/>
         <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -670,22 +660,15 @@
         <b/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -705,7 +688,11 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -721,9 +708,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EDFC352A-3A7C-4578-99CD-1F8DF0A0E134}" name="Tabela1" displayName="Tabela1" ref="A1:E129" totalsRowShown="0" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="A1:E129" xr:uid="{FF2CF211-F90D-4D86-933E-51867299FE93}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E129">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EDFC352A-3A7C-4578-99CD-1F8DF0A0E134}" name="Tabela1" displayName="Tabela1" ref="A1:E130" totalsRowShown="0" headerRowBorderDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A1:E130" xr:uid="{FF2CF211-F90D-4D86-933E-51867299FE93}"/>
+  <sortState ref="A2:E129">
     <sortCondition ref="A1:A129"/>
   </sortState>
   <tableColumns count="5">
@@ -742,9 +729,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -782,7 +769,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -888,7 +875,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1030,7 +1017,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1038,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF61405-5482-4CC5-B15A-0438917CEA80}">
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,11 +1069,11 @@
         <v>4</v>
       </c>
       <c r="D2" s="6">
-        <f>SUM(C2*10)</f>
+        <f t="shared" ref="D2:D33" si="0">SUM(C2*10)</f>
         <v>40</v>
       </c>
       <c r="E2" s="7">
-        <f>SUM(C2*15)</f>
+        <f t="shared" ref="E2:E65" si="1">SUM(C2*15)</f>
         <v>60</v>
       </c>
     </row>
@@ -1101,11 +1088,11 @@
         <v>4</v>
       </c>
       <c r="D3" s="6">
-        <f>SUM(C3*10)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E3" s="7">
-        <f>SUM(C3*15)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -1120,11 +1107,11 @@
         <v>5</v>
       </c>
       <c r="D4" s="6">
-        <f>SUM(C4*10)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E4" s="7">
-        <f>SUM(C4*15)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
@@ -1139,11 +1126,11 @@
         <v>4</v>
       </c>
       <c r="D5" s="6">
-        <f>SUM(C5*10)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E5" s="7">
-        <f>SUM(C5*15)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -1158,11 +1145,11 @@
         <v>5</v>
       </c>
       <c r="D6" s="6">
-        <f>SUM(C6*10)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E6" s="7">
-        <f>SUM(C6*15)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
@@ -1177,11 +1164,11 @@
         <v>5</v>
       </c>
       <c r="D7" s="6">
-        <f>SUM(C7*10)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E7" s="7">
-        <f>SUM(C7*15)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
@@ -1196,11 +1183,11 @@
         <v>4</v>
       </c>
       <c r="D8" s="6">
-        <f>SUM(C8*10)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E8" s="7">
-        <f>SUM(C8*15)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -1215,11 +1202,11 @@
         <v>5</v>
       </c>
       <c r="D9" s="6">
-        <f>SUM(C9*10)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E9" s="7">
-        <f>SUM(C9*15)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
@@ -1234,11 +1221,11 @@
         <v>3</v>
       </c>
       <c r="D10" s="6">
-        <f>SUM(C10*10)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E10" s="7">
-        <f>SUM(C10*15)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
@@ -1253,11 +1240,11 @@
         <v>4</v>
       </c>
       <c r="D11" s="6">
-        <f>SUM(C11*10)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E11" s="7">
-        <f>SUM(C11*15)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -1272,11 +1259,11 @@
         <v>4</v>
       </c>
       <c r="D12" s="6">
-        <f>SUM(C12*10)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E12" s="7">
-        <f>SUM(C12*15)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="H12" s="2"/>
@@ -1292,11 +1279,11 @@
         <v>4</v>
       </c>
       <c r="D13" s="6">
-        <f>SUM(C13*10)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E13" s="7">
-        <f>SUM(C13*15)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -1311,11 +1298,11 @@
         <v>5</v>
       </c>
       <c r="D14" s="6">
-        <f>SUM(C14*10)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E14" s="7">
-        <f>SUM(C14*15)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
@@ -1330,11 +1317,11 @@
         <v>4</v>
       </c>
       <c r="D15" s="6">
-        <f>SUM(C15*10)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E15" s="7">
-        <f>SUM(C15*15)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -1349,11 +1336,11 @@
         <v>5</v>
       </c>
       <c r="D16" s="6">
-        <f>SUM(C16*10)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E16" s="7">
-        <f>SUM(C16*15)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
@@ -1368,11 +1355,11 @@
         <v>3</v>
       </c>
       <c r="D17" s="6">
-        <f>SUM(C17*10)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E17" s="7">
-        <f>SUM(C17*15)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
@@ -1387,11 +1374,11 @@
         <v>3</v>
       </c>
       <c r="D18" s="6">
-        <f>SUM(C18*10)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E18" s="7">
-        <f>SUM(C18*15)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
@@ -1406,11 +1393,11 @@
         <v>4</v>
       </c>
       <c r="D19" s="6">
-        <f>SUM(C19*10)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E19" s="7">
-        <f>SUM(C19*15)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -1425,11 +1412,11 @@
         <v>5</v>
       </c>
       <c r="D20" s="6">
-        <f>SUM(C20*10)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E20" s="7">
-        <f>SUM(C20*15)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
@@ -1444,11 +1431,11 @@
         <v>5</v>
       </c>
       <c r="D21" s="6">
-        <f>SUM(C21*10)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E21" s="7">
-        <f>SUM(C21*15)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
@@ -1463,11 +1450,11 @@
         <v>6</v>
       </c>
       <c r="D22" s="6">
-        <f>SUM(C22*10)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E22" s="7">
-        <f>SUM(C22*15)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -1482,11 +1469,11 @@
         <v>4</v>
       </c>
       <c r="D23" s="6">
-        <f>SUM(C23*10)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E23" s="7">
-        <f>SUM(C23*15)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -1501,11 +1488,11 @@
         <v>4</v>
       </c>
       <c r="D24" s="6">
-        <f>SUM(C24*10)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E24" s="7">
-        <f>SUM(C24*15)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -1520,11 +1507,11 @@
         <v>3</v>
       </c>
       <c r="D25" s="6">
-        <f>SUM(C25*10)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E25" s="7">
-        <f>SUM(C25*15)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
@@ -1539,11 +1526,11 @@
         <v>4</v>
       </c>
       <c r="D26" s="6">
-        <f>SUM(C26*10)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E26" s="7">
-        <f>SUM(C26*15)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -1558,11 +1545,11 @@
         <v>3</v>
       </c>
       <c r="D27" s="6">
-        <f>SUM(C27*10)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E27" s="7">
-        <f>SUM(C27*15)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
@@ -1577,11 +1564,11 @@
         <v>4</v>
       </c>
       <c r="D28" s="6">
-        <f>SUM(C28*10)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E28" s="7">
-        <f>SUM(C28*15)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -1596,11 +1583,11 @@
         <v>5</v>
       </c>
       <c r="D29" s="6">
-        <f>SUM(C29*10)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E29" s="7">
-        <f>SUM(C29*15)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
@@ -1615,11 +1602,11 @@
         <v>6</v>
       </c>
       <c r="D30" s="6">
-        <f>SUM(C30*10)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E30" s="7">
-        <f>SUM(C30*15)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -1634,11 +1621,11 @@
         <v>4</v>
       </c>
       <c r="D31" s="6">
-        <f>SUM(C31*10)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E31" s="7">
-        <f>SUM(C31*15)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -1653,11 +1640,11 @@
         <v>3</v>
       </c>
       <c r="D32" s="6">
-        <f>SUM(C32*10)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E32" s="7">
-        <f>SUM(C32*15)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
@@ -1672,11 +1659,11 @@
         <v>7</v>
       </c>
       <c r="D33" s="6">
-        <f>SUM(C33*10)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="E33" s="7">
-        <f>SUM(C33*15)</f>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
     </row>
@@ -1691,11 +1678,11 @@
         <v>3</v>
       </c>
       <c r="D34" s="6">
-        <f>SUM(C34*10)</f>
+        <f t="shared" ref="D34:D97" si="2">SUM(C34*10)</f>
         <v>30</v>
       </c>
       <c r="E34" s="7">
-        <f>SUM(C34*15)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
@@ -1710,11 +1697,11 @@
         <v>2</v>
       </c>
       <c r="D35" s="6">
-        <f>SUM(C35*10)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="E35" s="7">
-        <f>SUM(C35*15)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -1729,11 +1716,11 @@
         <v>5</v>
       </c>
       <c r="D36" s="6">
-        <f>SUM(C36*10)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="E36" s="7">
-        <f>SUM(C36*15)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
@@ -1748,11 +1735,11 @@
         <v>4</v>
       </c>
       <c r="D37" s="6">
-        <f>SUM(C37*10)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E37" s="7">
-        <f>SUM(C37*15)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -1767,11 +1754,11 @@
         <v>4</v>
       </c>
       <c r="D38" s="6">
-        <f>SUM(C38*10)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E38" s="7">
-        <f>SUM(C38*15)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -1786,11 +1773,11 @@
         <v>5</v>
       </c>
       <c r="D39" s="6">
-        <f>SUM(C39*10)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="E39" s="7">
-        <f>SUM(C39*15)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
@@ -1805,11 +1792,11 @@
         <v>6</v>
       </c>
       <c r="D40" s="6">
-        <f>SUM(C40*10)</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="E40" s="7">
-        <f>SUM(C40*15)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -1824,11 +1811,11 @@
         <v>5</v>
       </c>
       <c r="D41" s="6">
-        <f>SUM(C41*10)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="E41" s="7">
-        <f>SUM(C41*15)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
@@ -1843,11 +1830,11 @@
         <v>6</v>
       </c>
       <c r="D42" s="6">
-        <f>SUM(C42*10)</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="E42" s="7">
-        <f>SUM(C42*15)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -1862,11 +1849,11 @@
         <v>4</v>
       </c>
       <c r="D43" s="6">
-        <f>SUM(C43*10)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E43" s="7">
-        <f>SUM(C43*15)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -1881,11 +1868,11 @@
         <v>3</v>
       </c>
       <c r="D44" s="6">
-        <f>SUM(C44*10)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="E44" s="7">
-        <f>SUM(C44*15)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
@@ -1900,11 +1887,11 @@
         <v>3</v>
       </c>
       <c r="D45" s="6">
-        <f>SUM(C45*10)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="E45" s="7">
-        <f>SUM(C45*15)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
@@ -1919,11 +1906,11 @@
         <v>3</v>
       </c>
       <c r="D46" s="6">
-        <f>SUM(C46*10)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="E46" s="7">
-        <f>SUM(C46*15)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
@@ -1938,11 +1925,11 @@
         <v>6</v>
       </c>
       <c r="D47" s="6">
-        <f>SUM(C47*10)</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="E47" s="7">
-        <f>SUM(C47*15)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -1957,11 +1944,11 @@
         <v>5</v>
       </c>
       <c r="D48" s="6">
-        <f>SUM(C48*10)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="E48" s="7">
-        <f>SUM(C48*15)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
@@ -1976,11 +1963,11 @@
         <v>3</v>
       </c>
       <c r="D49" s="6">
-        <f>SUM(C49*10)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="E49" s="7">
-        <f>SUM(C49*15)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
@@ -1995,11 +1982,11 @@
         <v>5</v>
       </c>
       <c r="D50" s="6">
-        <f>SUM(C50*10)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="E50" s="7">
-        <f>SUM(C50*15)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
@@ -2014,11 +2001,11 @@
         <v>4</v>
       </c>
       <c r="D51" s="6">
-        <f>SUM(C51*10)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E51" s="7">
-        <f>SUM(C51*15)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -2033,11 +2020,11 @@
         <v>7</v>
       </c>
       <c r="D52" s="6">
-        <f>SUM(C52*10)</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="E52" s="7">
-        <f>SUM(C52*15)</f>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
     </row>
@@ -2052,11 +2039,11 @@
         <v>6</v>
       </c>
       <c r="D53" s="6">
-        <f>SUM(C53*10)</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="E53" s="7">
-        <f>SUM(C53*15)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -2071,11 +2058,11 @@
         <v>3</v>
       </c>
       <c r="D54" s="6">
-        <f>SUM(C54*10)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="E54" s="7">
-        <f>SUM(C54*15)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -2093,11 +2080,11 @@
         <v>5</v>
       </c>
       <c r="D55" s="6">
-        <f>SUM(C55*10)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="E55" s="7">
-        <f>SUM(C55*15)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
@@ -2110,11 +2097,11 @@
         <v>5</v>
       </c>
       <c r="D56" s="6">
-        <f>SUM(C56*10)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="E56" s="8">
-        <f>SUM(C56*15)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
@@ -2129,11 +2116,11 @@
         <v>3</v>
       </c>
       <c r="D57" s="6">
-        <f>SUM(C57*10)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="E57" s="7">
-        <f>SUM(C57*15)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
@@ -2148,11 +2135,11 @@
         <v>5</v>
       </c>
       <c r="D58" s="6">
-        <f>SUM(C58*10)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="E58" s="7">
-        <f>SUM(C58*15)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
@@ -2167,11 +2154,11 @@
         <v>3</v>
       </c>
       <c r="D59" s="6">
-        <f>SUM(C59*10)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="E59" s="7">
-        <f>SUM(C59*15)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
@@ -2186,11 +2173,11 @@
         <v>3</v>
       </c>
       <c r="D60" s="6">
-        <f>SUM(C60*10)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="E60" s="7">
-        <f>SUM(C60*15)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
@@ -2205,11 +2192,11 @@
         <v>4</v>
       </c>
       <c r="D61" s="6">
-        <f>SUM(C61*10)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E61" s="7">
-        <f>SUM(C61*15)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -2224,11 +2211,11 @@
         <v>7</v>
       </c>
       <c r="D62" s="6">
-        <f>SUM(C62*10)</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="E62" s="7">
-        <f>SUM(C62*15)</f>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
     </row>
@@ -2243,11 +2230,11 @@
         <v>3</v>
       </c>
       <c r="D63" s="6">
-        <f>SUM(C63*10)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="E63" s="7">
-        <f>SUM(C63*15)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
@@ -2262,11 +2249,11 @@
         <v>5</v>
       </c>
       <c r="D64" s="6">
-        <f>SUM(C64*10)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="E64" s="7">
-        <f>SUM(C64*15)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
@@ -2281,11 +2268,11 @@
         <v>4</v>
       </c>
       <c r="D65" s="6">
-        <f>SUM(C65*10)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E65" s="7">
-        <f>SUM(C65*15)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -2300,11 +2287,11 @@
         <v>3</v>
       </c>
       <c r="D66" s="6">
-        <f>SUM(C66*10)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="E66" s="7">
-        <f>SUM(C66*15)</f>
+        <f t="shared" ref="E66:E129" si="3">SUM(C66*15)</f>
         <v>45</v>
       </c>
     </row>
@@ -2319,11 +2306,11 @@
         <v>4</v>
       </c>
       <c r="D67" s="6">
-        <f>SUM(C67*10)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E67" s="7">
-        <f>SUM(C67*15)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
@@ -2338,11 +2325,11 @@
         <v>5</v>
       </c>
       <c r="D68" s="6">
-        <f>SUM(C68*10)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="E68" s="7">
-        <f>SUM(C68*15)</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
@@ -2357,11 +2344,11 @@
         <v>6</v>
       </c>
       <c r="D69" s="6">
-        <f>SUM(C69*10)</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="E69" s="7">
-        <f>SUM(C69*15)</f>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
     </row>
@@ -2376,11 +2363,11 @@
         <v>3</v>
       </c>
       <c r="D70" s="6">
-        <f>SUM(C70*10)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="E70" s="7">
-        <f>SUM(C70*15)</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
     </row>
@@ -2395,11 +2382,11 @@
         <v>3</v>
       </c>
       <c r="D71" s="6">
-        <f>SUM(C71*10)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="E71" s="7">
-        <f>SUM(C71*15)</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
     </row>
@@ -2414,11 +2401,11 @@
         <v>3</v>
       </c>
       <c r="D72" s="6">
-        <f>SUM(C72*10)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="E72" s="7">
-        <f>SUM(C72*15)</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
     </row>
@@ -2433,11 +2420,11 @@
         <v>4</v>
       </c>
       <c r="D73" s="6">
-        <f>SUM(C73*10)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E73" s="7">
-        <f>SUM(C73*15)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
@@ -2452,11 +2439,11 @@
         <v>5</v>
       </c>
       <c r="D74" s="6">
-        <f>SUM(C74*10)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="E74" s="7">
-        <f>SUM(C74*15)</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
@@ -2471,11 +2458,11 @@
         <v>4</v>
       </c>
       <c r="D75" s="6">
-        <f>SUM(C75*10)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E75" s="7">
-        <f>SUM(C75*15)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
@@ -2490,11 +2477,11 @@
         <v>6</v>
       </c>
       <c r="D76" s="6">
-        <f>SUM(C76*10)</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="E76" s="7">
-        <f>SUM(C76*15)</f>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
     </row>
@@ -2509,11 +2496,11 @@
         <v>4</v>
       </c>
       <c r="D77" s="6">
-        <f>SUM(C77*10)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E77" s="7">
-        <f>SUM(C77*15)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
@@ -2528,11 +2515,11 @@
         <v>5</v>
       </c>
       <c r="D78" s="6">
-        <f>SUM(C78*10)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="E78" s="7">
-        <f>SUM(C78*15)</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
@@ -2547,11 +2534,11 @@
         <v>3</v>
       </c>
       <c r="D79" s="6">
-        <f>SUM(C79*10)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="E79" s="7">
-        <f>SUM(C79*15)</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
     </row>
@@ -2566,11 +2553,11 @@
         <v>3</v>
       </c>
       <c r="D80" s="6">
-        <f>SUM(C80*10)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="E80" s="7">
-        <f>SUM(C80*15)</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
     </row>
@@ -2585,11 +2572,11 @@
         <v>5</v>
       </c>
       <c r="D81" s="6">
-        <f>SUM(C81*10)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="E81" s="7">
-        <f>SUM(C81*15)</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
@@ -2604,11 +2591,11 @@
         <v>4</v>
       </c>
       <c r="D82" s="6">
-        <f>SUM(C82*10)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E82" s="7">
-        <f>SUM(C82*15)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
@@ -2623,11 +2610,11 @@
         <v>6</v>
       </c>
       <c r="D83" s="6">
-        <f>SUM(C83*10)</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="E83" s="7">
-        <f>SUM(C83*15)</f>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
     </row>
@@ -2642,11 +2629,11 @@
         <v>4</v>
       </c>
       <c r="D84" s="6">
-        <f>SUM(C84*10)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E84" s="7">
-        <f>SUM(C84*15)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
@@ -2661,11 +2648,11 @@
         <v>5</v>
       </c>
       <c r="D85" s="6">
-        <f>SUM(C85*10)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="E85" s="7">
-        <f>SUM(C85*15)</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
@@ -2680,11 +2667,11 @@
         <v>4</v>
       </c>
       <c r="D86" s="6">
-        <f>SUM(C86*10)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E86" s="7">
-        <f>SUM(C86*15)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
@@ -2699,11 +2686,11 @@
         <v>4</v>
       </c>
       <c r="D87" s="6">
-        <f>SUM(C87*10)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E87" s="7">
-        <f>SUM(C87*15)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
@@ -2718,11 +2705,11 @@
         <v>5</v>
       </c>
       <c r="D88" s="6">
-        <f>SUM(C88*10)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="E88" s="7">
-        <f>SUM(C88*15)</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
@@ -2737,11 +2724,11 @@
         <v>5</v>
       </c>
       <c r="D89" s="6">
-        <f>SUM(C89*10)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="E89" s="7">
-        <f>SUM(C89*15)</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
@@ -2756,11 +2743,11 @@
         <v>3</v>
       </c>
       <c r="D90" s="6">
-        <f>SUM(C90*10)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="E90" s="7">
-        <f>SUM(C90*15)</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
     </row>
@@ -2775,11 +2762,11 @@
         <v>4</v>
       </c>
       <c r="D91" s="6">
-        <f>SUM(C91*10)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E91" s="7">
-        <f>SUM(C91*15)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
@@ -2794,11 +2781,11 @@
         <v>4</v>
       </c>
       <c r="D92" s="6">
-        <f>SUM(C92*10)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E92" s="7">
-        <f>SUM(C92*15)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
@@ -2813,11 +2800,11 @@
         <v>3</v>
       </c>
       <c r="D93" s="6">
-        <f>SUM(C93*10)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="E93" s="7">
-        <f>SUM(C93*15)</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
     </row>
@@ -2832,11 +2819,11 @@
         <v>4</v>
       </c>
       <c r="D94" s="6">
-        <f>SUM(C94*10)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E94" s="7">
-        <f>SUM(C94*15)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
@@ -2851,11 +2838,11 @@
         <v>4</v>
       </c>
       <c r="D95" s="6">
-        <f>SUM(C95*10)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E95" s="7">
-        <f>SUM(C95*15)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
@@ -2870,11 +2857,11 @@
         <v>4</v>
       </c>
       <c r="D96" s="6">
-        <f>SUM(C96*10)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E96" s="7">
-        <f>SUM(C96*15)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
@@ -2889,11 +2876,11 @@
         <v>3</v>
       </c>
       <c r="D97" s="6">
-        <f>SUM(C97*10)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="E97" s="7">
-        <f>SUM(C97*15)</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
     </row>
@@ -2908,11 +2895,11 @@
         <v>3</v>
       </c>
       <c r="D98" s="6">
-        <f>SUM(C98*10)</f>
+        <f t="shared" ref="D98:D129" si="4">SUM(C98*10)</f>
         <v>30</v>
       </c>
       <c r="E98" s="7">
-        <f>SUM(C98*15)</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
     </row>
@@ -2924,15 +2911,15 @@
         <v>63</v>
       </c>
       <c r="C99" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" s="6">
-        <f>SUM(C99*10)</f>
-        <v>40</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="E99" s="7">
-        <f>SUM(C99*15)</f>
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2946,11 +2933,11 @@
         <v>2</v>
       </c>
       <c r="D100" s="6">
-        <f>SUM(C100*10)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="E100" s="7">
-        <f>SUM(C100*15)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
@@ -2965,11 +2952,11 @@
         <v>5</v>
       </c>
       <c r="D101" s="6">
-        <f>SUM(C101*10)</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="E101" s="7">
-        <f>SUM(C101*15)</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
@@ -2984,11 +2971,11 @@
         <v>4</v>
       </c>
       <c r="D102" s="6">
-        <f>SUM(C102*10)</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="E102" s="7">
-        <f>SUM(C102*15)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
@@ -3003,11 +2990,11 @@
         <v>4</v>
       </c>
       <c r="D103" s="6">
-        <f>SUM(C103*10)</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="E103" s="7">
-        <f>SUM(C103*15)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
@@ -3022,11 +3009,11 @@
         <v>5</v>
       </c>
       <c r="D104" s="6">
-        <f>SUM(C104*10)</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="E104" s="7">
-        <f>SUM(C104*15)</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
@@ -3041,11 +3028,11 @@
         <v>5</v>
       </c>
       <c r="D105" s="6">
-        <f>SUM(C105*10)</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="E105" s="7">
-        <f>SUM(C105*15)</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
@@ -3060,11 +3047,11 @@
         <v>4</v>
       </c>
       <c r="D106" s="6">
-        <f>SUM(C106*10)</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="E106" s="7">
-        <f>SUM(C106*15)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
@@ -3079,11 +3066,11 @@
         <v>3</v>
       </c>
       <c r="D107" s="6">
-        <f>SUM(C107*10)</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="E107" s="7">
-        <f>SUM(C107*15)</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
     </row>
@@ -3098,11 +3085,11 @@
         <v>3</v>
       </c>
       <c r="D108" s="6">
-        <f>SUM(C108*10)</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="E108" s="7">
-        <f>SUM(C108*15)</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
     </row>
@@ -3117,11 +3104,11 @@
         <v>4</v>
       </c>
       <c r="D109" s="6">
-        <f>SUM(C109*10)</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="E109" s="7">
-        <f>SUM(C109*15)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
@@ -3136,11 +3123,11 @@
         <v>4</v>
       </c>
       <c r="D110" s="6">
-        <f>SUM(C110*10)</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="E110" s="7">
-        <f>SUM(C110*15)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
@@ -3155,11 +3142,11 @@
         <v>5</v>
       </c>
       <c r="D111" s="6">
-        <f>SUM(C111*10)</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="E111" s="7">
-        <f>SUM(C111*15)</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
@@ -3174,11 +3161,11 @@
         <v>5</v>
       </c>
       <c r="D112" s="6">
-        <f>SUM(C112*10)</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="E112" s="7">
-        <f>SUM(C112*15)</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
@@ -3193,11 +3180,11 @@
         <v>5</v>
       </c>
       <c r="D113" s="6">
-        <f>SUM(C113*10)</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="E113" s="7">
-        <f>SUM(C113*15)</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
@@ -3212,11 +3199,11 @@
         <v>3</v>
       </c>
       <c r="D114" s="6">
-        <f>SUM(C114*10)</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="E114" s="7">
-        <f>SUM(C114*15)</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
     </row>
@@ -3231,11 +3218,11 @@
         <v>4</v>
       </c>
       <c r="D115" s="6">
-        <f>SUM(C115*10)</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="E115" s="8">
-        <f>SUM(C115*15)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
@@ -3250,11 +3237,11 @@
         <v>5</v>
       </c>
       <c r="D116" s="6">
-        <f>SUM(C116*10)</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="E116" s="7">
-        <f>SUM(C116*15)</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
@@ -3269,11 +3256,11 @@
         <v>5</v>
       </c>
       <c r="D117" s="6">
-        <f>SUM(C117*10)</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="E117" s="7">
-        <f>SUM(C117*15)</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
@@ -3288,11 +3275,11 @@
         <v>4</v>
       </c>
       <c r="D118" s="6">
-        <f>SUM(C118*10)</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="E118" s="7">
-        <f>SUM(C118*15)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
@@ -3307,11 +3294,11 @@
         <v>5</v>
       </c>
       <c r="D119" s="6">
-        <f>SUM(C119*10)</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="E119" s="7">
-        <f>SUM(C119*15)</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
@@ -3326,11 +3313,11 @@
         <v>6</v>
       </c>
       <c r="D120" s="6">
-        <f>SUM(C120*10)</f>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="E120" s="7">
-        <f>SUM(C120*15)</f>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
     </row>
@@ -3345,11 +3332,11 @@
         <v>4</v>
       </c>
       <c r="D121" s="6">
-        <f>SUM(C121*10)</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="E121" s="7">
-        <f>SUM(C121*15)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
@@ -3364,11 +3351,11 @@
         <v>4</v>
       </c>
       <c r="D122" s="6">
-        <f>SUM(C122*10)</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="E122" s="7">
-        <f>SUM(C122*15)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
@@ -3383,11 +3370,11 @@
         <v>4</v>
       </c>
       <c r="D123" s="6">
-        <f>SUM(C123*10)</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="E123" s="7">
-        <f>SUM(C123*15)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
@@ -3402,11 +3389,11 @@
         <v>3</v>
       </c>
       <c r="D124" s="6">
-        <f>SUM(C124*10)</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="E124" s="7">
-        <f>SUM(C124*15)</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
     </row>
@@ -3421,11 +3408,11 @@
         <v>4</v>
       </c>
       <c r="D125" s="6">
-        <f>SUM(C125*10)</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="E125" s="7">
-        <f>SUM(C125*15)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
@@ -3440,11 +3427,11 @@
         <v>5</v>
       </c>
       <c r="D126" s="6">
-        <f>SUM(C126*10)</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="E126" s="7">
-        <f>SUM(C126*15)</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
@@ -3459,11 +3446,11 @@
         <v>3</v>
       </c>
       <c r="D127" s="6">
-        <f>SUM(C127*10)</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="E127" s="7">
-        <f>SUM(C127*15)</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
     </row>
@@ -3475,15 +3462,15 @@
         <v>97</v>
       </c>
       <c r="C128" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D128" s="6">
-        <f>SUM(C128*10)</f>
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
       <c r="E128" s="7">
-        <f>SUM(C128*15)</f>
-        <v>45</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3497,17 +3484,36 @@
         <v>5</v>
       </c>
       <c r="D129" s="7">
-        <f>SUM(C129*10)</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="E129" s="7">
-        <f>SUM(C129*15)</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C130" s="12">
+        <v>4</v>
+      </c>
+      <c r="D130" s="7">
+        <f>SUM(C130*10)</f>
+        <v>40</v>
+      </c>
+      <c r="E130" s="8">
+        <f>SUM(C130*15)</f>
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:B3 E3:E127 D1:E3">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="A1:B1 D1:E1">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3520,8 +3526,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:B129">
-    <cfRule type="dataBar" priority="17">
+  <conditionalFormatting sqref="A2:B3 E2:E127 D2:D3">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3529,12 +3535,26 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D93E4341-68AD-4EE2-BF3B-45BE37881AD1}</x14:id>
+          <x14:id>{D9251BD4-3A3E-4C7F-B824-1D493FEB7F5C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B129 D2:E129">
+  <conditionalFormatting sqref="A2:B130">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{667A619F-018C-4B86-8E5B-55AE36C4A6E3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B130 D2:E130">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -3543,7 +3563,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DB575148-3B8E-495D-B70C-739ADB121A8B}</x14:id>
+          <x14:id>{61E7A237-153A-4975-B0E4-67374F4B8CCD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3577,10 +3597,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A1:B3 E3:E127 D1:E3</xm:sqref>
+          <xm:sqref>A1:B1 D1:E1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D93E4341-68AD-4EE2-BF3B-45BE37881AD1}">
+          <x14:cfRule type="dataBar" id="{D9251BD4-3A3E-4C7F-B824-1D493FEB7F5C}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3590,10 +3610,23 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>A2:B129</xm:sqref>
+          <xm:sqref>A2:B3 E2:E127 D2:D3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DB575148-3B8E-495D-B70C-739ADB121A8B}">
+          <x14:cfRule type="dataBar" id="{667A619F-018C-4B86-8E5B-55AE36C4A6E3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A2:B130</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{61E7A237-153A-4975-B0E4-67374F4B8CCD}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3601,10 +3634,24 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B2:B129 D2:E129</xm:sqref>
+          <xm:sqref>B2:B130 D2:E130</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D35B3E-F633-461B-9AF9-237B7B0ACEAE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>